--- a/Chapters/Chapter 12 - Working with excel spreadsheets/styled.xlsx
+++ b/Chapters/Chapter 12 - Working with excel spreadsheets/styled.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
